--- a/BUMMO/01. 자료/01. 족보/02. 수학(하)/01. 중간/수학(하) 중간 문제분류.xlsx
+++ b/BUMMO/01. 자료/01. 족보/02. 수학(하)/01. 중간/수학(하) 중간 문제분류.xlsx
@@ -22,33 +22,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="27">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="27">
   <x:si>
-    <x:t>용인고</x:t>
+    <x:t>1. 함수의 정의</x:t>
   </x:si>
   <x:si>
-    <x:t>번호</x:t>
+    <x:t>2. 여러가지 함수</x:t>
   </x:si>
   <x:si>
-    <x:t>학교</x:t>
+    <x:t>9. 경우의수(합곱법칙)</x:t>
   </x:si>
   <x:si>
-    <x:t>태성고</x:t>
+    <x:t>2 -&gt; 유형서 일반예제</x:t>
   </x:si>
   <x:si>
-    <x:t>고림고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼계고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연도</x:t>
+    <x:t>1 -&gt; 교과서 기본예제</x:t>
   </x:si>
   <x:si>
     <x:t>3 -&gt; 유형서 심화예제(킬러, 준킬러)</x:t>
@@ -57,52 +45,64 @@
     <x:t>3 -&gt; 유형서 심화예제(쎈B+, C)</x:t>
   </x:si>
   <x:si>
-    <x:t>5. 유리식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단원구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 합성함수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8. 무리함수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11. 조합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. 무리식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 역함수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6. 유리함수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10. 순열</x:t>
-  </x:si>
-  <x:si>
     <x:t>2 -&gt; 유형서 일반예제(쎈B스텝)</x:t>
   </x:si>
   <x:si>
     <x:t>1 -&gt; 교과서 기본예제(쎈A스텝)</x:t>
   </x:si>
   <x:si>
-    <x:t>2 -&gt; 유형서 일반예제</x:t>
+    <x:t>6. 유리함수</x:t>
   </x:si>
   <x:si>
-    <x:t>9. 경우의수(합곱법칙)</x:t>
+    <x:t>7. 무리식</x:t>
   </x:si>
   <x:si>
-    <x:t>1 -&gt; 교과서 기본예제</x:t>
+    <x:t>10. 순열</x:t>
   </x:si>
   <x:si>
-    <x:t>2. 여러가지 함수</x:t>
+    <x:t>4. 역함수</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 함수의 정의</x:t>
+    <x:t>단원구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11. 조합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. 무리함수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. 유리식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 합성함수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태성고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼계고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고림고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학교</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용인고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연도</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -928,7 +928,7 @@
   <x:dimension ref="A1:G357"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <x:selection activeCell="B77" activeCellId="0" sqref="B77:B77"/>
+      <x:selection activeCell="A359" activeCellId="0" sqref="A359:A359"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -943,19 +943,19 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1" s="7"/>
       <x:c r="G1" s="6"/>
@@ -965,7 +965,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2" s="3"/>
       <x:c r="D2" s="3">
@@ -974,7 +974,7 @@
       <x:c r="E2" s="3"/>
       <x:c r="F2" s="7"/>
       <x:c r="G2" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7" hidden="1">
@@ -982,7 +982,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C3" s="3"/>
       <x:c r="D3" s="3">
@@ -991,7 +991,7 @@
       <x:c r="E3" s="3"/>
       <x:c r="F3" s="7"/>
       <x:c r="G3" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" hidden="1">
@@ -999,7 +999,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C4" s="3"/>
       <x:c r="D4" s="3">
@@ -1008,7 +1008,7 @@
       <x:c r="E4" s="3"/>
       <x:c r="F4" s="7"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7" hidden="1">
@@ -1016,7 +1016,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="3"/>
       <x:c r="D5" s="3">
@@ -1025,7 +1025,7 @@
       <x:c r="E5" s="3"/>
       <x:c r="F5" s="7"/>
       <x:c r="G5" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" hidden="1">
@@ -1033,7 +1033,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C6" s="3"/>
       <x:c r="D6" s="3">
@@ -1042,7 +1042,7 @@
       <x:c r="E6" s="3"/>
       <x:c r="F6" s="7"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7" hidden="1">
@@ -1050,7 +1050,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="3"/>
       <x:c r="D7" s="3">
@@ -1059,7 +1059,7 @@
       <x:c r="E7" s="3"/>
       <x:c r="F7" s="7"/>
       <x:c r="G7" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" hidden="1">
@@ -1067,7 +1067,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C8" s="3"/>
       <x:c r="D8" s="3">
@@ -1076,7 +1076,7 @@
       <x:c r="E8" s="3"/>
       <x:c r="F8" s="7"/>
       <x:c r="G8" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" hidden="1">
@@ -1084,7 +1084,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C9" s="3"/>
       <x:c r="D9" s="3">
@@ -1093,7 +1093,7 @@
       <x:c r="E9" s="3"/>
       <x:c r="F9" s="7"/>
       <x:c r="G9" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" hidden="1">
@@ -1101,7 +1101,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="1">
         <x:v>1</x:v>
@@ -1114,7 +1114,7 @@
       </x:c>
       <x:c r="F10" s="1"/>
       <x:c r="G10" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" hidden="1">
@@ -1122,7 +1122,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C11" s="3"/>
       <x:c r="D11" s="3">
@@ -1131,7 +1131,7 @@
       <x:c r="E11" s="3"/>
       <x:c r="F11" s="7"/>
       <x:c r="G11" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" hidden="1">
@@ -1139,7 +1139,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C12" s="3"/>
       <x:c r="D12" s="3">
@@ -1148,7 +1148,7 @@
       <x:c r="E12" s="3"/>
       <x:c r="F12" s="7"/>
       <x:c r="G12" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" hidden="1">
@@ -1156,7 +1156,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C13" s="3"/>
       <x:c r="D13" s="3">
@@ -1165,7 +1165,7 @@
       <x:c r="E13" s="3"/>
       <x:c r="F13" s="7"/>
       <x:c r="G13" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" hidden="1">
@@ -1173,7 +1173,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C14" s="3"/>
       <x:c r="D14" s="3">
@@ -1188,7 +1188,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C15" s="1">
         <x:v>1</x:v>
@@ -1201,7 +1201,7 @@
       </x:c>
       <x:c r="F15" s="1"/>
       <x:c r="G15" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" hidden="1">
@@ -1209,7 +1209,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C16" s="3"/>
       <x:c r="D16" s="3">
@@ -1218,7 +1218,7 @@
       <x:c r="E16" s="3"/>
       <x:c r="F16" s="7"/>
       <x:c r="G16" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" hidden="1">
@@ -1226,7 +1226,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C17" s="3"/>
       <x:c r="D17" s="3">
@@ -1235,7 +1235,7 @@
       <x:c r="E17" s="3"/>
       <x:c r="F17" s="7"/>
       <x:c r="G17" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" hidden="1">
@@ -1243,7 +1243,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="3"/>
       <x:c r="D18" s="3">
@@ -1252,7 +1252,7 @@
       <x:c r="E18" s="3"/>
       <x:c r="F18" s="7"/>
       <x:c r="G18" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5" hidden="1">
@@ -1260,7 +1260,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C19" s="3"/>
       <x:c r="D19" s="3">
@@ -1273,7 +1273,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="3">
         <x:v>2</x:v>
@@ -1286,7 +1286,7 @@
       </x:c>
       <x:c r="F20" s="7"/>
       <x:c r="G20" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5" hidden="1">
@@ -1300,7 +1300,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C22" s="3"/>
       <x:c r="D22" s="3">
@@ -1308,7 +1308,7 @@
       </x:c>
       <x:c r="E22" s="3"/>
       <x:c r="G22" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7" hidden="1">
@@ -1316,7 +1316,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C23" s="3"/>
       <x:c r="D23" s="3">
@@ -1324,7 +1324,7 @@
       </x:c>
       <x:c r="E23" s="3"/>
       <x:c r="G23" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7" hidden="1">
@@ -1332,7 +1332,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C24" s="3"/>
       <x:c r="D24" s="3">
@@ -1340,7 +1340,7 @@
       </x:c>
       <x:c r="E24" s="3"/>
       <x:c r="G24" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7" hidden="1">
@@ -1348,7 +1348,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C25" s="3"/>
       <x:c r="D25" s="3">
@@ -1356,7 +1356,7 @@
       </x:c>
       <x:c r="E25" s="3"/>
       <x:c r="G25" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7" hidden="1">
@@ -1364,7 +1364,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C26" s="3"/>
       <x:c r="D26" s="3">
@@ -1372,7 +1372,7 @@
       </x:c>
       <x:c r="E26" s="3"/>
       <x:c r="G26" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7" hidden="1">
@@ -1380,7 +1380,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C27" s="3"/>
       <x:c r="D27" s="3">
@@ -1388,7 +1388,7 @@
       </x:c>
       <x:c r="E27" s="3"/>
       <x:c r="G27" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7" hidden="1">
@@ -1396,7 +1396,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C28" s="3"/>
       <x:c r="D28" s="3">
@@ -1404,7 +1404,7 @@
       </x:c>
       <x:c r="E28" s="3"/>
       <x:c r="G28" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" hidden="1">
@@ -1412,7 +1412,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C29" s="3"/>
       <x:c r="D29" s="3">
@@ -1420,7 +1420,7 @@
       </x:c>
       <x:c r="E29" s="3"/>
       <x:c r="G29" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7" hidden="1">
@@ -1428,7 +1428,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C30" s="3"/>
       <x:c r="D30" s="3">
@@ -1436,7 +1436,7 @@
       </x:c>
       <x:c r="E30" s="3"/>
       <x:c r="G30" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7" hidden="1">
@@ -1444,7 +1444,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C31" s="3"/>
       <x:c r="D31" s="3">
@@ -1452,7 +1452,7 @@
       </x:c>
       <x:c r="E31" s="3"/>
       <x:c r="G31" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" hidden="1">
@@ -1460,7 +1460,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B32" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C32" s="3"/>
       <x:c r="D32" s="3">
@@ -1468,7 +1468,7 @@
       </x:c>
       <x:c r="E32" s="3"/>
       <x:c r="G32" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" hidden="1">
@@ -1476,7 +1476,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B33" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C33" s="3">
         <x:v>2</x:v>
@@ -1494,7 +1494,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B34" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C34" s="3"/>
       <x:c r="D34" s="3">
@@ -1508,7 +1508,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B35" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C35" s="3"/>
       <x:c r="D35" s="3">
@@ -1516,7 +1516,7 @@
       </x:c>
       <x:c r="E35" s="3"/>
       <x:c r="G35" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7" hidden="1">
@@ -1524,7 +1524,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B36" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C36" s="3"/>
       <x:c r="D36" s="3">
@@ -1532,7 +1532,7 @@
       </x:c>
       <x:c r="E36" s="3"/>
       <x:c r="G36" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7" hidden="1">
@@ -1540,7 +1540,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B37" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C37" s="3">
         <x:v>2</x:v>
@@ -1558,7 +1558,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B38" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C38" s="3"/>
       <x:c r="D38" s="3">
@@ -1566,7 +1566,7 @@
       </x:c>
       <x:c r="E38" s="3"/>
       <x:c r="G38" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5" hidden="1">
@@ -1574,7 +1574,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B39" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C39" s="1">
         <x:v>2</x:v>
@@ -1591,7 +1591,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B40" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D40" s="3">
         <x:v>19</x:v>
@@ -1602,7 +1602,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C41" s="5">
         <x:v>2</x:v>
@@ -1614,7 +1614,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G41" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4" hidden="1">
@@ -1627,13 +1627,13 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B43" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D43" s="5">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G43" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:7" hidden="1">
@@ -1641,13 +1641,13 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B44" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D44" s="5">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G44" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:7" hidden="1">
@@ -1655,7 +1655,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B45" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C45" s="5">
         <x:v>2</x:v>
@@ -1667,7 +1667,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G45" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:7" hidden="1">
@@ -1675,13 +1675,13 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B46" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D46" s="5">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G46" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7" hidden="1">
@@ -1689,13 +1689,13 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B47" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D47" s="5">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G47" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7" hidden="1">
@@ -1703,13 +1703,13 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B48" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D48" s="5">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G48" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7" hidden="1">
@@ -1717,7 +1717,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B49" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C49" s="5">
         <x:v>2</x:v>
@@ -1729,7 +1729,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G49" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" hidden="1">
@@ -1737,7 +1737,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C50" s="5">
         <x:v>2</x:v>
@@ -1749,7 +1749,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G50" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7" hidden="1">
@@ -1757,13 +1757,13 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D51" s="5">
         <x:v>9</x:v>
       </x:c>
       <x:c r="G51" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7" hidden="1">
@@ -1771,7 +1771,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C52" s="5">
         <x:v>2</x:v>
@@ -1783,7 +1783,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G52" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7" hidden="1">
@@ -1791,13 +1791,13 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B53" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D53" s="5">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G53" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:7" hidden="1">
@@ -1805,7 +1805,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C54" s="1">
         <x:v>1</x:v>
@@ -1818,7 +1818,7 @@
       </x:c>
       <x:c r="F54" s="7"/>
       <x:c r="G54" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:7" hidden="1">
@@ -1826,19 +1826,19 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B55" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D55" s="5">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G55" s="6"/>
     </x:row>
-    <x:row r="56" spans="1:7">
+    <x:row r="56" spans="1:7" hidden="1">
       <x:c r="A56" s="1">
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B56" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C56" s="1">
         <x:v>3</x:v>
@@ -1850,7 +1850,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G56" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:7" hidden="1">
@@ -1858,13 +1858,13 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B57" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D57" s="5">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G57" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:7" hidden="1">
@@ -1872,13 +1872,13 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B58" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D58" s="5">
         <x:v>16</x:v>
       </x:c>
       <x:c r="G58" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:7" hidden="1">
@@ -1886,7 +1886,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B59" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C59" s="5">
         <x:v>3</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G59" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:4" hidden="1">
@@ -1906,7 +1906,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D60" s="5">
         <x:v>18</x:v>
@@ -1920,7 +1920,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B62" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D62" s="5">
         <x:v>1</x:v>
@@ -1931,7 +1931,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B63" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D63" s="5">
         <x:v>2</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B64" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D64" s="5">
         <x:v>3</x:v>
@@ -1953,7 +1953,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B65" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D65" s="5">
         <x:v>4</x:v>
@@ -1964,13 +1964,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B66" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D66" s="5">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G66" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:7" hidden="1">
@@ -1978,13 +1978,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B67" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D67" s="5">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G67" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:7" hidden="1">
@@ -1992,13 +1992,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B68" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D68" s="5">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G68" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7" hidden="1">
@@ -2006,13 +2006,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B69" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D69" s="5">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G69" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:7" hidden="1">
@@ -2020,13 +2020,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B70" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D70" s="5">
         <x:v>9</x:v>
       </x:c>
       <x:c r="G70" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:7" hidden="1">
@@ -2034,13 +2034,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B71" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D71" s="5">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G71" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:7" hidden="1">
@@ -2048,13 +2048,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B72" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D72" s="5">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G72" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:7" hidden="1">
@@ -2062,13 +2062,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B73" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D73" s="5">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G73" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:7" hidden="1">
@@ -2076,13 +2076,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B74" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D74" s="5">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G74" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:7" hidden="1">
@@ -2090,13 +2090,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B75" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D75" s="5">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G75" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:7" hidden="1">
@@ -2104,7 +2104,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B76" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C76" s="5">
         <x:v>3</x:v>
@@ -2116,15 +2116,15 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G76" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:7">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:7" hidden="1">
       <x:c r="A77" s="5">
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B77" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C77" s="5">
         <x:v>3</x:v>
@@ -2136,7 +2136,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G77" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:7" hidden="1">
@@ -2144,7 +2144,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B78" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C78" s="5">
         <x:v>3</x:v>
@@ -2156,15 +2156,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G78" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:7">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:7" hidden="1">
       <x:c r="A79" s="5">
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B79" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C79" s="5">
         <x:v>3</x:v>
@@ -2176,15 +2176,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G79" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:7">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:7" hidden="1">
       <x:c r="A80" s="5">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B80" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C80" s="5">
         <x:v>3</x:v>
@@ -2196,7 +2196,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G80" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:7" hidden="1">
@@ -2204,7 +2204,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B81" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C81" s="5">
         <x:v>3</x:v>
@@ -2216,7 +2216,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G81" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:7" hidden="1">
@@ -2224,13 +2224,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B82" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D82" s="5">
         <x:v>21</x:v>
       </x:c>
       <x:c r="G82" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:4" hidden="1">
@@ -2238,7 +2238,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B83" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D83" s="5">
         <x:v>22</x:v>
@@ -2258,7 +2258,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B86" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D86" s="5">
         <x:v>1</x:v>
@@ -2269,7 +2269,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B87" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D87" s="3">
         <x:v>2</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B88" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D88" s="5">
         <x:v>3</x:v>
@@ -2291,18 +2291,18 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B89" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D89" s="3">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:7" s="3" customFormat="1">
+    <x:row r="90" spans="1:7" s="3" customFormat="1" hidden="1">
       <x:c r="A90" s="5">
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B90" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C90" s="1">
         <x:v>3</x:v>
@@ -2321,7 +2321,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B91" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D91" s="3">
         <x:v>6</x:v>
@@ -2332,13 +2332,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B92" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D92" s="5">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G92" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:7" hidden="1">
@@ -2346,13 +2346,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B93" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D93" s="3">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G93" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:7" hidden="1">
@@ -2360,13 +2360,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B94" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D94" s="5">
         <x:v>9</x:v>
       </x:c>
       <x:c r="G94" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:7" hidden="1">
@@ -2374,13 +2374,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B95" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D95" s="3">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G95" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:7" hidden="1">
@@ -2388,7 +2388,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B96" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C96" s="5">
         <x:v>3</x:v>
@@ -2400,7 +2400,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G96" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:7" hidden="1">
@@ -2408,13 +2408,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B97" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D97" s="3">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G97" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:7" hidden="1">
@@ -2422,13 +2422,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B98" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D98" s="5">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G98" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:7" hidden="1">
@@ -2436,13 +2436,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B99" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D99" s="3">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G99" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7" hidden="1">
@@ -2450,7 +2450,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B100" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C100" s="5">
         <x:v>3</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G100" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7" hidden="1">
@@ -2470,13 +2470,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B101" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D101" s="3">
         <x:v>16</x:v>
       </x:c>
       <x:c r="G101" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:7" hidden="1">
@@ -2484,21 +2484,21 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B102" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D102" s="5">
         <x:v>17</x:v>
       </x:c>
       <x:c r="G102" s="6" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="1:7">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:7" hidden="1">
       <x:c r="A103" s="5">
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B103" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C103" s="5">
         <x:v>3</x:v>
@@ -2510,7 +2510,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G103" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="2:7" hidden="1">
@@ -2522,13 +2522,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B105" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D105" s="5">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G105" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:7" hidden="1">
@@ -2536,13 +2536,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B106" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D106" s="5">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G106" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:7" hidden="1">
@@ -2550,13 +2550,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B107" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D107" s="5">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G107" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:7" hidden="1">
@@ -2564,13 +2564,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B108" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D108" s="5">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G108" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:4" hidden="1">
@@ -2578,7 +2578,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B109" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D109" s="5">
         <x:v>5</x:v>
@@ -2589,7 +2589,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B110" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D110" s="5">
         <x:v>6</x:v>
@@ -2600,7 +2600,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B111" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D111" s="5">
         <x:v>7</x:v>
@@ -2611,18 +2611,18 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B112" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D112" s="5">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:7">
+    <x:row r="113" spans="1:7" hidden="1">
       <x:c r="A113" s="5">
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B113" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C113" s="5">
         <x:v>3</x:v>
@@ -2634,7 +2634,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G113" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:7" hidden="1">
@@ -2642,13 +2642,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B114" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D114" s="5">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G114" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:7" hidden="1">
@@ -2656,13 +2656,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B115" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D115" s="5">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G115" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:7" hidden="1">
@@ -2670,13 +2670,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B116" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D116" s="5">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G116" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:7" hidden="1">
@@ -2684,13 +2684,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B117" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D117" s="5">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G117" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:7" hidden="1">
@@ -2698,13 +2698,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B118" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D118" s="5">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G118" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:7" hidden="1">
@@ -2712,13 +2712,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B119" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D119" s="5">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G119" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:7" hidden="1">
@@ -2726,7 +2726,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B120" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C120" s="5">
         <x:v>3</x:v>
@@ -2738,7 +2738,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G120" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:7" hidden="1">
@@ -2746,13 +2746,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B121" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D121" s="5">
         <x:v>17</x:v>
       </x:c>
       <x:c r="G121" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:7" hidden="1">
@@ -2760,7 +2760,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B122" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C122" s="5">
         <x:v>3</x:v>
@@ -2772,7 +2772,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G122" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:7" hidden="1">
@@ -2780,13 +2780,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B123" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D123" s="5">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G123" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:7" hidden="1">
@@ -2794,13 +2794,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B124" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D124" s="5">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G124" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:7" hidden="1">
@@ -2808,7 +2808,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B125" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C125" s="1">
         <x:v>4</x:v>
@@ -2820,7 +2820,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G125" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="2:7" hidden="1">
@@ -2832,13 +2832,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B127" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D127" s="5">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G127" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:7" hidden="1">
@@ -2846,13 +2846,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B128" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D128" s="5">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G128" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:7" hidden="1">
@@ -2860,7 +2860,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B129" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C129" s="5">
         <x:v>4</x:v>
@@ -2878,13 +2878,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B130" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D130" s="5">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G130" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:4" hidden="1">
@@ -2892,7 +2892,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B131" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D131" s="5">
         <x:v>5</x:v>
@@ -2903,7 +2903,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B132" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D132" s="5">
         <x:v>6</x:v>
@@ -2914,7 +2914,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B133" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D133" s="5">
         <x:v>7</x:v>
@@ -2925,7 +2925,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B134" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D134" s="5">
         <x:v>8</x:v>
@@ -2936,7 +2936,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B135" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D135" s="5">
         <x:v>9</x:v>
@@ -2947,7 +2947,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B136" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C136" s="3"/>
       <x:c r="D136" s="5">
@@ -2960,13 +2960,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B137" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D137" s="5">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G137" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:7" hidden="1">
@@ -2974,7 +2974,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B138" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C138" s="5">
         <x:v>4</x:v>
@@ -2986,7 +2986,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G138" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:7" hidden="1">
@@ -2994,7 +2994,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B139" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C139" s="5">
         <x:v>4</x:v>
@@ -3006,7 +3006,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G139" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:7" hidden="1">
@@ -3014,13 +3014,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B140" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D140" s="5">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G140" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:7" hidden="1">
@@ -3028,21 +3028,21 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B141" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D141" s="5">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G141" s="6" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="142" spans="1:7" hidden="1">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:7">
       <x:c r="A142" s="5">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B142" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C142" s="5">
         <x:v>4</x:v>
@@ -3054,7 +3054,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G142" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:7" hidden="1">
@@ -3062,7 +3062,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B143" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C143" s="1">
         <x:v>4</x:v>
@@ -3081,13 +3081,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B144" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D144" s="5">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G144" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:7" hidden="1">
@@ -3095,13 +3095,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B145" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D145" s="5">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G145" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:7" hidden="1">
@@ -3109,7 +3109,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B146" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C146" s="5">
         <x:v>4</x:v>
@@ -3121,123 +3121,309 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G146" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="2:7" hidden="1">
       <x:c r="B147" s="3"/>
       <x:c r="G147" s="6" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="148" spans="2:7" hidden="1">
-      <x:c r="B148" s="3"/>
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:7" hidden="1">
+      <x:c r="A148" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B148" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D148" s="5">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="G148" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:7" hidden="1">
+      <x:c r="A149" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B149" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D149" s="5">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G149" s="6"/>
+    </x:row>
+    <x:row r="150" spans="1:7" hidden="1">
+      <x:c r="A150" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B150" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C150" s="5">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D150" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E150" s="5">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G150" s="6" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:7" hidden="1">
+      <x:c r="A151" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B151" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D151" s="5">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G151" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:7" hidden="1">
+      <x:c r="A152" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B152" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D152" s="5">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G152" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:7" hidden="1">
+      <x:c r="A153" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B153" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D153" s="5">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G153" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:4" hidden="1">
+      <x:c r="A154" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B154" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D154" s="5">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:5" hidden="1">
+      <x:c r="A155" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B155" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C155" s="5">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D155" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E155" s="5">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:7" hidden="1">
+      <x:c r="A156" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B156" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D156" s="5">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G156" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:7" hidden="1">
+      <x:c r="A157" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B157" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D157" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G157" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:7" hidden="1">
+      <x:c r="A158" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B158" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D158" s="5">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G158" s="6" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:7" hidden="1">
+      <x:c r="A159" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B159" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D159" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G159" s="6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:7" hidden="1">
+      <x:c r="A160" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B160" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D160" s="5">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G160" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:7" hidden="1">
+      <x:c r="A161" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B161" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C161" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D161" s="5">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E161" s="5">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G161" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:7" hidden="1">
+      <x:c r="A162" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B162" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D162" s="5">
         <x:v>15</x:v>
       </x:c>
-    </x:row>
-    <x:row r="149" spans="2:7" hidden="1">
-      <x:c r="B149" s="3"/>
-      <x:c r="G149" s="6"/>
-    </x:row>
-    <x:row r="150" spans="2:7" hidden="1">
-      <x:c r="B150" s="3"/>
-      <x:c r="G150" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="151" spans="2:7" hidden="1">
-      <x:c r="B151" s="3"/>
-      <x:c r="G151" s="6" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="152" spans="2:7" hidden="1">
-      <x:c r="B152" s="3"/>
-      <x:c r="G152" s="6" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="153" spans="2:7" hidden="1">
-      <x:c r="B153" s="3"/>
-      <x:c r="G153" s="6" t="s">
+      <x:c r="G162" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="154" spans="2:2" hidden="1">
-      <x:c r="B154" s="3"/>
-    </x:row>
-    <x:row r="155" hidden="1"/>
-    <x:row r="156" spans="2:7" hidden="1">
-      <x:c r="B156" s="3"/>
-      <x:c r="G156" s="6" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="157" spans="2:7" hidden="1">
-      <x:c r="B157" s="3"/>
-      <x:c r="G157" s="6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="158" spans="2:7" hidden="1">
-      <x:c r="B158" s="3"/>
-      <x:c r="G158" s="6" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="159" spans="2:7" hidden="1">
-      <x:c r="B159" s="3"/>
-      <x:c r="G159" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="160" spans="2:7" hidden="1">
-      <x:c r="B160" s="3"/>
-      <x:c r="G160" s="6" t="s">
+    <x:row r="163" spans="1:7" hidden="1">
+      <x:c r="A163" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B163" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D163" s="5">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G163" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:7" hidden="1">
+      <x:c r="A164" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B164" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D164" s="5">
         <x:v>17</x:v>
       </x:c>
-    </x:row>
-    <x:row r="161" spans="2:7" hidden="1">
-      <x:c r="B161" s="3"/>
-      <x:c r="G161" s="6" t="s">
+      <x:c r="G164" s="6" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:7" hidden="1">
+      <x:c r="A165" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B165" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D165" s="5">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G165" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:7" hidden="1">
+      <x:c r="A166" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B166" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D166" s="5">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G166" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="162" spans="2:7" hidden="1">
-      <x:c r="B162" s="3"/>
-      <x:c r="G162" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="163" spans="2:7" hidden="1">
-      <x:c r="B163" s="3"/>
-      <x:c r="G163" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="164" spans="2:7" hidden="1">
-      <x:c r="B164" s="3"/>
-      <x:c r="G164" s="6" t="s">
+    <x:row r="167" spans="1:7" hidden="1">
+      <x:c r="A167" s="5">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B167" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C167" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D167" s="5">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E167" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G167" s="6" t="s">
         <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="165" spans="2:7" hidden="1">
-      <x:c r="B165" s="3"/>
-      <x:c r="G165" s="6" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="166" spans="2:7" hidden="1">
-      <x:c r="B166" s="3"/>
-      <x:c r="G166" s="6" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="167" spans="2:7" hidden="1">
-      <x:c r="B167" s="3"/>
-      <x:c r="G167" s="6" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="2:7" hidden="1">
@@ -3247,25 +3433,25 @@
     <x:row r="169" spans="2:7" hidden="1">
       <x:c r="B169" s="3"/>
       <x:c r="G169" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="2:7" hidden="1">
       <x:c r="B170" s="3"/>
       <x:c r="G170" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="2:7" hidden="1">
       <x:c r="B171" s="3"/>
       <x:c r="G171" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="2:7" hidden="1">
       <x:c r="B172" s="3"/>
       <x:c r="G172" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="2:2" hidden="1">
@@ -3297,7 +3483,7 @@
       <x:c r="E182" s="2"/>
       <x:c r="F182" s="2"/>
       <x:c r="G182" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:7" hidden="1">
@@ -3308,7 +3494,7 @@
       <x:c r="E183" s="2"/>
       <x:c r="F183" s="2"/>
       <x:c r="G183" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:7" hidden="1">
@@ -3319,7 +3505,7 @@
       <x:c r="E184" s="2"/>
       <x:c r="F184" s="2"/>
       <x:c r="G184" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:7" hidden="1">
@@ -3330,7 +3516,7 @@
       <x:c r="E185" s="2"/>
       <x:c r="F185" s="2"/>
       <x:c r="G185" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:7" hidden="1">
@@ -3341,7 +3527,7 @@
       <x:c r="E186" s="2"/>
       <x:c r="F186" s="2"/>
       <x:c r="G186" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:7" hidden="1">
@@ -3352,7 +3538,7 @@
       <x:c r="E187" s="2"/>
       <x:c r="F187" s="2"/>
       <x:c r="G187" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:7" hidden="1">
@@ -3363,7 +3549,7 @@
       <x:c r="E188" s="2"/>
       <x:c r="F188" s="2"/>
       <x:c r="G188" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:7" hidden="1">
@@ -3374,7 +3560,7 @@
       <x:c r="E189" s="2"/>
       <x:c r="F189" s="2"/>
       <x:c r="G189" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:7" hidden="1">
@@ -3385,7 +3571,7 @@
       <x:c r="E190" s="2"/>
       <x:c r="F190" s="2"/>
       <x:c r="G190" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:7" hidden="1">
@@ -3396,7 +3582,7 @@
       <x:c r="E191" s="2"/>
       <x:c r="F191" s="2"/>
       <x:c r="G191" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:7" hidden="1">
@@ -3407,7 +3593,7 @@
       <x:c r="E192" s="2"/>
       <x:c r="F192" s="2"/>
       <x:c r="G192" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:7" hidden="1">
@@ -3418,7 +3604,7 @@
       <x:c r="E193" s="2"/>
       <x:c r="F193" s="2"/>
       <x:c r="G193" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:7" hidden="1">
@@ -3438,7 +3624,7 @@
       <x:c r="E195" s="2"/>
       <x:c r="F195" s="2"/>
       <x:c r="G195" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:7" hidden="1">
@@ -3449,7 +3635,7 @@
       <x:c r="E196" s="2"/>
       <x:c r="F196" s="2"/>
       <x:c r="G196" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:7" hidden="1">
@@ -3460,7 +3646,7 @@
       <x:c r="E197" s="2"/>
       <x:c r="F197" s="2"/>
       <x:c r="G197" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:7" hidden="1">
@@ -3471,7 +3657,7 @@
       <x:c r="E198" s="2"/>
       <x:c r="F198" s="2"/>
       <x:c r="G198" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:7" hidden="1">
@@ -3523,73 +3709,73 @@
     <x:row r="205" spans="2:7" hidden="1">
       <x:c r="B205" s="2"/>
       <x:c r="G205" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="2:7" hidden="1">
       <x:c r="B206" s="2"/>
       <x:c r="G206" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="2:7" hidden="1">
       <x:c r="B207" s="2"/>
       <x:c r="G207" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="2:7" hidden="1">
       <x:c r="B208" s="2"/>
       <x:c r="G208" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="2:7" hidden="1">
       <x:c r="B209" s="2"/>
       <x:c r="G209" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="2:7" hidden="1">
       <x:c r="B210" s="2"/>
       <x:c r="G210" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="2:7" hidden="1">
       <x:c r="B211" s="2"/>
       <x:c r="G211" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="2:7" hidden="1">
       <x:c r="B212" s="2"/>
       <x:c r="G212" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="2:7" hidden="1">
       <x:c r="B213" s="2"/>
       <x:c r="G213" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="2:7" hidden="1">
       <x:c r="B214" s="2"/>
       <x:c r="G214" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="2:7" hidden="1">
       <x:c r="B215" s="2"/>
       <x:c r="G215" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="2:7" hidden="1">
       <x:c r="B216" s="2"/>
       <x:c r="G216" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="2:7" hidden="1">
@@ -3599,25 +3785,25 @@
     <x:row r="218" spans="2:7" hidden="1">
       <x:c r="B218" s="2"/>
       <x:c r="G218" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="2:7" hidden="1">
       <x:c r="B219" s="2"/>
       <x:c r="G219" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="2:7" hidden="1">
       <x:c r="B220" s="2"/>
       <x:c r="G220" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="2:7" hidden="1">
       <x:c r="B221" s="2"/>
       <x:c r="G221" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="2:2" hidden="1">
@@ -3638,73 +3824,73 @@
     <x:row r="227" spans="2:7" hidden="1">
       <x:c r="B227" s="2"/>
       <x:c r="G227" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="2:7" hidden="1">
       <x:c r="B228" s="2"/>
       <x:c r="G228" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="2:7" hidden="1">
       <x:c r="B229" s="2"/>
       <x:c r="G229" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="2:7" hidden="1">
       <x:c r="B230" s="2"/>
       <x:c r="G230" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="2:7" hidden="1">
       <x:c r="B231" s="2"/>
       <x:c r="G231" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="2:7" hidden="1">
       <x:c r="B232" s="2"/>
       <x:c r="G232" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="2:7" hidden="1">
       <x:c r="B233" s="2"/>
       <x:c r="G233" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="2:7" hidden="1">
       <x:c r="B234" s="2"/>
       <x:c r="G234" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="2:7" hidden="1">
       <x:c r="B235" s="2"/>
       <x:c r="G235" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="2:7" hidden="1">
       <x:c r="B236" s="2"/>
       <x:c r="G236" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="2:7" hidden="1">
       <x:c r="B237" s="2"/>
       <x:c r="G237" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="2:7" hidden="1">
       <x:c r="B238" s="2"/>
       <x:c r="G238" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="2:7" hidden="1">
@@ -3714,25 +3900,25 @@
     <x:row r="240" spans="2:7" hidden="1">
       <x:c r="B240" s="2"/>
       <x:c r="G240" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="2:7" hidden="1">
       <x:c r="B241" s="2"/>
       <x:c r="G241" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="2:7" hidden="1">
       <x:c r="B242" s="2"/>
       <x:c r="G242" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="2:7" hidden="1">
       <x:c r="B243" s="2"/>
       <x:c r="G243" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="2:2" hidden="1">
@@ -3748,73 +3934,73 @@
     <x:row r="248" spans="2:7" hidden="1">
       <x:c r="B248" s="2"/>
       <x:c r="G248" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="2:7" hidden="1">
       <x:c r="B249" s="2"/>
       <x:c r="G249" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="2:7" hidden="1">
       <x:c r="B250" s="2"/>
       <x:c r="G250" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="2:7" hidden="1">
       <x:c r="B251" s="2"/>
       <x:c r="G251" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="2:7" hidden="1">
       <x:c r="B252" s="2"/>
       <x:c r="G252" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="2:7" hidden="1">
       <x:c r="B253" s="2"/>
       <x:c r="G253" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="2:7" hidden="1">
       <x:c r="B254" s="2"/>
       <x:c r="G254" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="2:7" hidden="1">
       <x:c r="B255" s="2"/>
       <x:c r="G255" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="2:7" hidden="1">
       <x:c r="B256" s="2"/>
       <x:c r="G256" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="2:7" hidden="1">
       <x:c r="B257" s="2"/>
       <x:c r="G257" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="2:7" hidden="1">
       <x:c r="B258" s="2"/>
       <x:c r="G258" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="2:7" hidden="1">
       <x:c r="B259" s="2"/>
       <x:c r="G259" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="2:7" hidden="1">
@@ -3824,25 +4010,25 @@
     <x:row r="261" spans="2:7" hidden="1">
       <x:c r="B261" s="2"/>
       <x:c r="G261" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="2:7" hidden="1">
       <x:c r="B262" s="2"/>
       <x:c r="G262" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="2:7" hidden="1">
       <x:c r="B263" s="2"/>
       <x:c r="G263" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="2:7" hidden="1">
       <x:c r="B264" s="2"/>
       <x:c r="G264" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="2:2" hidden="1">
@@ -3873,73 +4059,73 @@
     <x:row r="272" spans="2:7" hidden="1">
       <x:c r="B272" s="2"/>
       <x:c r="G272" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="2:7" hidden="1">
       <x:c r="B273" s="2"/>
       <x:c r="G273" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="2:7" hidden="1">
       <x:c r="B274" s="2"/>
       <x:c r="G274" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="2:7" hidden="1">
       <x:c r="B275" s="2"/>
       <x:c r="G275" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="2:7" hidden="1">
       <x:c r="B276" s="2"/>
       <x:c r="G276" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="2:7" hidden="1">
       <x:c r="B277" s="2"/>
       <x:c r="G277" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="2:7" hidden="1">
       <x:c r="B278" s="2"/>
       <x:c r="G278" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="2:7" hidden="1">
       <x:c r="B279" s="2"/>
       <x:c r="G279" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="2:7" hidden="1">
       <x:c r="B280" s="2"/>
       <x:c r="G280" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="2:7" hidden="1">
       <x:c r="B281" s="2"/>
       <x:c r="G281" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="2:7" hidden="1">
       <x:c r="B282" s="2"/>
       <x:c r="G282" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="2:7" hidden="1">
       <x:c r="B283" s="2"/>
       <x:c r="G283" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="2:7" hidden="1">
@@ -3949,25 +4135,25 @@
     <x:row r="285" spans="2:7" hidden="1">
       <x:c r="B285" s="2"/>
       <x:c r="G285" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="2:7" hidden="1">
       <x:c r="B286" s="2"/>
       <x:c r="G286" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="2:7" hidden="1">
       <x:c r="B287" s="2"/>
       <x:c r="G287" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="2:7" hidden="1">
       <x:c r="B288" s="2"/>
       <x:c r="G288" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="2:2" hidden="1">
@@ -3983,73 +4169,73 @@
     <x:row r="293" spans="2:7" hidden="1">
       <x:c r="B293" s="2"/>
       <x:c r="G293" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="2:7" hidden="1">
       <x:c r="B294" s="2"/>
       <x:c r="G294" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="2:7" hidden="1">
       <x:c r="B295" s="2"/>
       <x:c r="G295" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="2:7" hidden="1">
       <x:c r="B296" s="2"/>
       <x:c r="G296" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="2:7" hidden="1">
       <x:c r="B297" s="2"/>
       <x:c r="G297" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="2:7" hidden="1">
       <x:c r="B298" s="2"/>
       <x:c r="G298" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="2:7" hidden="1">
       <x:c r="B299" s="2"/>
       <x:c r="G299" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="2:7" hidden="1">
       <x:c r="B300" s="2"/>
       <x:c r="G300" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="2:7" hidden="1">
       <x:c r="B301" s="2"/>
       <x:c r="G301" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="2:7" hidden="1">
       <x:c r="B302" s="2"/>
       <x:c r="G302" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="2:7" hidden="1">
       <x:c r="B303" s="2"/>
       <x:c r="G303" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="2:7" hidden="1">
       <x:c r="B304" s="2"/>
       <x:c r="G304" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="2:7" hidden="1">
@@ -4059,25 +4245,25 @@
     <x:row r="306" spans="2:7" hidden="1">
       <x:c r="B306" s="2"/>
       <x:c r="G306" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="2:7" hidden="1">
       <x:c r="B307" s="2"/>
       <x:c r="G307" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="2:7" hidden="1">
       <x:c r="B308" s="2"/>
       <x:c r="G308" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="2:7" hidden="1">
       <x:c r="B309" s="2"/>
       <x:c r="G309" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="2:2" hidden="1">
@@ -4107,7 +4293,7 @@
       <x:c r="C317" s="2"/>
       <x:c r="D317" s="2"/>
       <x:c r="G317" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:7" hidden="1">
@@ -4116,7 +4302,7 @@
       <x:c r="C318" s="2"/>
       <x:c r="D318" s="2"/>
       <x:c r="G318" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:7" hidden="1">
@@ -4125,7 +4311,7 @@
       <x:c r="C319" s="2"/>
       <x:c r="D319" s="2"/>
       <x:c r="G319" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:7" hidden="1">
@@ -4134,7 +4320,7 @@
       <x:c r="C320" s="2"/>
       <x:c r="D320" s="2"/>
       <x:c r="G320" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:7" hidden="1">
@@ -4143,7 +4329,7 @@
       <x:c r="C321" s="2"/>
       <x:c r="D321" s="2"/>
       <x:c r="G321" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:7" hidden="1">
@@ -4152,7 +4338,7 @@
       <x:c r="C322" s="2"/>
       <x:c r="D322" s="2"/>
       <x:c r="G322" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="323" spans="1:7" hidden="1">
@@ -4161,7 +4347,7 @@
       <x:c r="C323" s="2"/>
       <x:c r="D323" s="2"/>
       <x:c r="G323" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:7" hidden="1">
@@ -4170,7 +4356,7 @@
       <x:c r="C324" s="2"/>
       <x:c r="D324" s="2"/>
       <x:c r="G324" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:7" hidden="1">
@@ -4179,7 +4365,7 @@
       <x:c r="C325" s="2"/>
       <x:c r="D325" s="2"/>
       <x:c r="G325" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:7" hidden="1">
@@ -4188,7 +4374,7 @@
       <x:c r="C326" s="2"/>
       <x:c r="D326" s="2"/>
       <x:c r="G326" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:7" hidden="1">
@@ -4197,7 +4383,7 @@
       <x:c r="C327" s="2"/>
       <x:c r="D327" s="2"/>
       <x:c r="G327" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:7" hidden="1">
@@ -4206,7 +4392,7 @@
       <x:c r="C328" s="2"/>
       <x:c r="D328" s="2"/>
       <x:c r="G328" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:7" hidden="1">
@@ -4222,7 +4408,7 @@
       <x:c r="C330" s="2"/>
       <x:c r="D330" s="2"/>
       <x:c r="G330" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:7" hidden="1">
@@ -4231,7 +4417,7 @@
       <x:c r="C331" s="2"/>
       <x:c r="D331" s="2"/>
       <x:c r="G331" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="332" spans="1:7" hidden="1">
@@ -4240,7 +4426,7 @@
       <x:c r="C332" s="2"/>
       <x:c r="D332" s="2"/>
       <x:c r="G332" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="333" spans="1:7" hidden="1">
@@ -4249,7 +4435,7 @@
       <x:c r="C333" s="2"/>
       <x:c r="D333" s="2"/>
       <x:c r="G333" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:4" hidden="1">
@@ -4274,73 +4460,73 @@
     <x:row r="338" spans="2:7" hidden="1">
       <x:c r="B338" s="2"/>
       <x:c r="G338" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="339" spans="2:7" hidden="1">
       <x:c r="B339" s="2"/>
       <x:c r="G339" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="2:7" hidden="1">
       <x:c r="B340" s="2"/>
       <x:c r="G340" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="2:7" hidden="1">
       <x:c r="B341" s="2"/>
       <x:c r="G341" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="342" spans="2:7" hidden="1">
       <x:c r="B342" s="2"/>
       <x:c r="G342" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="343" spans="2:7" hidden="1">
       <x:c r="B343" s="2"/>
       <x:c r="G343" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="344" spans="2:7" hidden="1">
       <x:c r="B344" s="2"/>
       <x:c r="G344" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="2:7" hidden="1">
       <x:c r="B345" s="2"/>
       <x:c r="G345" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="346" spans="2:7" hidden="1">
       <x:c r="B346" s="2"/>
       <x:c r="G346" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="347" spans="2:7" hidden="1">
       <x:c r="B347" s="2"/>
       <x:c r="G347" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="2:7" hidden="1">
       <x:c r="B348" s="2"/>
       <x:c r="G348" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="349" spans="2:7" hidden="1">
       <x:c r="B349" s="2"/>
       <x:c r="G349" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="350" spans="2:7" hidden="1">
@@ -4350,25 +4536,25 @@
     <x:row r="351" spans="2:7" hidden="1">
       <x:c r="B351" s="2"/>
       <x:c r="G351" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="352" spans="2:7" hidden="1">
       <x:c r="B352" s="2"/>
       <x:c r="G352" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="353" spans="2:7" hidden="1">
       <x:c r="B353" s="2"/>
       <x:c r="G353" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="354" spans="2:7" hidden="1">
       <x:c r="B354" s="2"/>
       <x:c r="G354" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="355" spans="2:2" hidden="1">
@@ -4384,17 +4570,14 @@
   <x:autoFilter ref="A1:G357">
     <x:filterColumn colId="2">
       <x:filters>
-        <x:filter val="3"/>
+        <x:filter val="4"/>
       </x:filters>
     </x:filterColumn>
     <x:filterColumn colId="4">
       <x:filters>
-        <x:filter val="2"/>
+        <x:filter val="3"/>
       </x:filters>
     </x:filterColumn>
-    <x:sortState columnSort="0" caseSensitive="0" ref="A2:G357">
-      <x:sortCondition descending="0" sortBy="value" ref="C2:C357"/>
-    </x:sortState>
   </x:autoFilter>
   <x:sortState columnSort="0" caseSensitive="0" ref="A3:E21"/>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
